--- a/others/Dev Shapley/index.xlsx
+++ b/others/Dev Shapley/index.xlsx
@@ -7,48 +7,23 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Shapley" sheetId="1" r:id="rId1"/>
-    <sheet name="First_sobol" sheetId="2" r:id="rId2"/>
-    <sheet name="Total_sobol" sheetId="3" r:id="rId3"/>
+    <sheet name="Ni_3_boot_3_index1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ni_3_boot_3_index2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
   <si>
-    <t>X1</t>
+    <t>Sh</t>
   </si>
   <si>
-    <t>X2</t>
+    <t>ICmin</t>
   </si>
   <si>
-    <t>X3</t>
-  </si>
-  <si>
-    <t>count</t>
-  </si>
-  <si>
-    <t>mean</t>
-  </si>
-  <si>
-    <t>std</t>
-  </si>
-  <si>
-    <t>min</t>
-  </si>
-  <si>
-    <t>2.5%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>97.5%</t>
-  </si>
-  <si>
-    <t>max</t>
+    <t>ICmax</t>
   </si>
 </sst>
 </file>
@@ -406,7 +381,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -424,115 +399,45 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0.1032088428581094</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0.01956494163856978</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0.03806625757929533</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.177733082624527</v>
+        <v>0.4236416899038825</v>
       </c>
       <c r="C3">
-        <v>0.390458175872535</v>
+        <v>0.4395637996740079</v>
       </c>
       <c r="D3">
-        <v>0.431808741502938</v>
+        <v>0.4605008457908788</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0238685706366309</v>
+        <v>0.4731494672380082</v>
       </c>
       <c r="C4">
-        <v>0.0090026478191105</v>
+        <v>0.5138410500791554</v>
       </c>
       <c r="D4">
-        <v>0.0153804045513161</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.113737556964063</v>
-      </c>
-      <c r="C5">
-        <v>0.381605232704691</v>
-      </c>
-      <c r="D5">
-        <v>0.41844122080005</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.127762880795542</v>
-      </c>
-      <c r="C6">
-        <v>0.381953577724269</v>
-      </c>
-      <c r="D6">
-        <v>0.419047199158951</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.180047457691211</v>
-      </c>
-      <c r="C7">
-        <v>0.388586311566773</v>
-      </c>
-      <c r="D7">
-        <v>0.429069202433923</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.19899922311678</v>
-      </c>
-      <c r="C8">
-        <v>0.409246949276133</v>
-      </c>
-      <c r="D8">
-        <v>0.46416717190722</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.199953546495259</v>
-      </c>
-      <c r="C9">
-        <v>0.412859596829147</v>
-      </c>
-      <c r="D9">
-        <v>0.473402846206791</v>
+        <v>0.5265826883667725</v>
       </c>
     </row>
   </sheetData>
@@ -542,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -560,251 +465,45 @@
       </c>
     </row>
     <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
+      <c r="A2" s="1">
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>10</v>
+        <v>0.1032088428581094</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>0.0213376286757459</v>
       </c>
       <c r="D2">
-        <v>10</v>
+        <v>0.03557481390393211</v>
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
+      <c r="A3" s="1">
+        <v>1</v>
       </c>
       <c r="B3">
-        <v>0.387248954506272</v>
+        <v>0.4236416899038825</v>
       </c>
       <c r="C3">
-        <v>0.873002824902709</v>
+        <v>0.4487536080444519</v>
       </c>
       <c r="D3">
-        <v>0.915764754485297</v>
+        <v>0.4586448748009894</v>
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
+      <c r="A4" s="1">
+        <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0927398938923771</v>
+        <v>0.4731494672380082</v>
       </c>
       <c r="C4">
-        <v>0.0198148389638818</v>
+        <v>0.511581477632209</v>
       </c>
       <c r="D4">
-        <v>0.0131519484784222</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.131824403078311</v>
-      </c>
-      <c r="C5">
-        <v>0.817214471440274</v>
-      </c>
-      <c r="D5">
-        <v>0.87900057285253</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.189998015894555</v>
-      </c>
-      <c r="C6">
-        <v>0.830275661848735</v>
-      </c>
-      <c r="D6">
-        <v>0.887457592093652</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.403323934175013</v>
-      </c>
-      <c r="C7">
-        <v>0.877954211631199</v>
-      </c>
-      <c r="D7">
-        <v>0.91969338108194</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.454752541371242</v>
-      </c>
-      <c r="C8">
-        <v>0.883882837060006</v>
-      </c>
-      <c r="D8">
-        <v>0.923676626743044</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.455246620489048</v>
-      </c>
-      <c r="C9">
-        <v>0.884205494728792</v>
-      </c>
-      <c r="D9">
-        <v>0.924285178419942</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>10</v>
-      </c>
-      <c r="C2">
-        <v>10</v>
-      </c>
-      <c r="D2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3">
-        <v>0.0733705489601034</v>
-      </c>
-      <c r="C3">
-        <v>0.0136584175609126</v>
-      </c>
-      <c r="D3">
-        <v>0.0558247445167527</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4">
-        <v>0.0113915880302005</v>
-      </c>
-      <c r="C4">
-        <v>0.00220090573127392</v>
-      </c>
-      <c r="D4">
-        <v>0.00858622929458632</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>0.0660650795983828</v>
-      </c>
-      <c r="C5">
-        <v>0.0122932416395923</v>
-      </c>
-      <c r="D5">
-        <v>0.0509605934478707</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>0.0663159648605461</v>
-      </c>
-      <c r="C6">
-        <v>0.0123544624363958</v>
-      </c>
-      <c r="D6">
-        <v>0.0511157833065558</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>0.069440614229883</v>
-      </c>
-      <c r="C7">
-        <v>0.0130591779899146</v>
-      </c>
-      <c r="D7">
-        <v>0.0532066291070618</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>0.0980383069747309</v>
-      </c>
-      <c r="C8">
-        <v>0.01842385544951</v>
-      </c>
-      <c r="D8">
-        <v>0.0744529359339849</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>0.104714879357229</v>
-      </c>
-      <c r="C9">
-        <v>0.0198179049253647</v>
-      </c>
-      <c r="D9">
-        <v>0.0799321938901308</v>
+        <v>0.5231168276303948</v>
       </c>
     </row>
   </sheetData>

--- a/others/Dev Shapley/index.xlsx
+++ b/others/Dev Shapley/index.xlsx
@@ -8,14 +8,20 @@
   </bookViews>
   <sheets>
     <sheet name="Ni_3_boot_3_index1" sheetId="1" r:id="rId1"/>
-    <sheet name="Ni_3_boot_3_index2" sheetId="2" r:id="rId2"/>
+    <sheet name="Ni_3_boot_4_index1" sheetId="2" r:id="rId2"/>
+    <sheet name="Ni_3_boot_3_index2" sheetId="3" r:id="rId3"/>
+    <sheet name="Ni_3_boot_4_index2" sheetId="4" r:id="rId4"/>
+    <sheet name="Ni_100_boot_3_index1" sheetId="5" r:id="rId5"/>
+    <sheet name="Ni_100_boot_4_index1" sheetId="6" r:id="rId6"/>
+    <sheet name="Ni_100_boot_3_index2" sheetId="7" r:id="rId7"/>
+    <sheet name="Ni_100_boot_4_index2" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="3">
   <si>
     <t>Sh</t>
   </si>
@@ -406,10 +412,10 @@
         <v>0.1032088428581094</v>
       </c>
       <c r="C2">
-        <v>0.01956494163856978</v>
+        <v>0.01358296397220987</v>
       </c>
       <c r="D2">
-        <v>0.03806625757929533</v>
+        <v>0.03361417917501924</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -420,10 +426,10 @@
         <v>0.4236416899038825</v>
       </c>
       <c r="C3">
-        <v>0.4395637996740079</v>
+        <v>0.4437074900128906</v>
       </c>
       <c r="D3">
-        <v>0.4605008457908788</v>
+        <v>0.4648284484023575</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -434,10 +440,10 @@
         <v>0.4731494672380082</v>
       </c>
       <c r="C4">
-        <v>0.5138410500791554</v>
+        <v>0.5176714397428467</v>
       </c>
       <c r="D4">
-        <v>0.5265826883667725</v>
+        <v>0.5277269901728479</v>
       </c>
     </row>
   </sheetData>
@@ -472,10 +478,10 @@
         <v>0.1032088428581094</v>
       </c>
       <c r="C2">
-        <v>0.0213376286757459</v>
+        <v>0.0173281620121975</v>
       </c>
       <c r="D2">
-        <v>0.03557481390393211</v>
+        <v>0.03584925052112548</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -486,10 +492,10 @@
         <v>0.4236416899038825</v>
       </c>
       <c r="C3">
-        <v>0.4487536080444519</v>
+        <v>0.4474894340947717</v>
       </c>
       <c r="D3">
-        <v>0.4586448748009894</v>
+        <v>0.4619517687121493</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -500,10 +506,406 @@
         <v>0.4731494672380082</v>
       </c>
       <c r="C4">
-        <v>0.511581477632209</v>
+        <v>0.5156317723110669</v>
       </c>
       <c r="D4">
-        <v>0.5231168276303948</v>
+        <v>0.5256905689832936</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1032088428581094</v>
+      </c>
+      <c r="C2">
+        <v>0.02199382179831269</v>
+      </c>
+      <c r="D2">
+        <v>0.03212187368472572</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4236416899038825</v>
+      </c>
+      <c r="C3">
+        <v>0.4454846527241665</v>
+      </c>
+      <c r="D3">
+        <v>0.4578147489118713</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4731494672380082</v>
+      </c>
+      <c r="C4">
+        <v>0.5152219099299966</v>
+      </c>
+      <c r="D4">
+        <v>0.5248157063924067</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1032088428581094</v>
+      </c>
+      <c r="C2">
+        <v>0.02151202159524496</v>
+      </c>
+      <c r="D2">
+        <v>0.03367425446284195</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4236416899038825</v>
+      </c>
+      <c r="C3">
+        <v>0.4476263142090156</v>
+      </c>
+      <c r="D3">
+        <v>0.4582103860777237</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4731494672380082</v>
+      </c>
+      <c r="C4">
+        <v>0.5172805081127709</v>
+      </c>
+      <c r="D4">
+        <v>0.5232835361090332</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1069881867516858</v>
+      </c>
+      <c r="C2">
+        <v>0.103707771685446</v>
+      </c>
+      <c r="D2">
+        <v>0.1072815976484949</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4170682652162331</v>
+      </c>
+      <c r="C3">
+        <v>0.4168586572247071</v>
+      </c>
+      <c r="D3">
+        <v>0.4189981105493965</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4759435480320811</v>
+      </c>
+      <c r="C4">
+        <v>0.4753893375058799</v>
+      </c>
+      <c r="D4">
+        <v>0.4782626922169568</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1069881867516858</v>
+      </c>
+      <c r="C2">
+        <v>0.1032006218676396</v>
+      </c>
+      <c r="D2">
+        <v>0.1064586307438127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4170682652162331</v>
+      </c>
+      <c r="C3">
+        <v>0.4168270818915878</v>
+      </c>
+      <c r="D3">
+        <v>0.4189666246339989</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4759435480320811</v>
+      </c>
+      <c r="C4">
+        <v>0.4760490144583445</v>
+      </c>
+      <c r="D4">
+        <v>0.4780245874693905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1069881867516858</v>
+      </c>
+      <c r="C2">
+        <v>0.1032826105261954</v>
+      </c>
+      <c r="D2">
+        <v>0.1056516863935082</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4170682652162331</v>
+      </c>
+      <c r="C3">
+        <v>0.4164439397913591</v>
+      </c>
+      <c r="D3">
+        <v>0.4190248292590021</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4759435480320811</v>
+      </c>
+      <c r="C4">
+        <v>0.4765163384144601</v>
+      </c>
+      <c r="D4">
+        <v>0.4782404238467223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0.1069881867516858</v>
+      </c>
+      <c r="C2">
+        <v>0.102401308538262</v>
+      </c>
+      <c r="D2">
+        <v>0.1057496130311167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.4170682652162331</v>
+      </c>
+      <c r="C3">
+        <v>0.4167626639174515</v>
+      </c>
+      <c r="D3">
+        <v>0.4189052541262183</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0.4759435480320811</v>
+      </c>
+      <c r="C4">
+        <v>0.4768080990698892</v>
+      </c>
+      <c r="D4">
+        <v>0.4788586198582089</v>
       </c>
     </row>
   </sheetData>
